--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MehmetFatihAKCA\Desktop\github\lung_cancer_detection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MehmetFatihAKCA\Desktop\github\lung_cancer_prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55B37DBE-4D26-464A-A5BA-155FC67E0D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E810E8-8EAB-41D3-9DCD-09D4BC29F10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC93CDF4-A6ED-4A50-A647-369D53701B9A}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -58,13 +57,40 @@
   </si>
   <si>
     <t>VGG16</t>
+  </si>
+  <si>
+    <t>Train Precision</t>
+  </si>
+  <si>
+    <t>Train Recall</t>
+  </si>
+  <si>
+    <t>Valid Precision</t>
+  </si>
+  <si>
+    <t>Valid Recall</t>
+  </si>
+  <si>
+    <t>Train F1</t>
+  </si>
+  <si>
+    <t>Valid F1</t>
+  </si>
+  <si>
+    <t>Test Precision</t>
+  </si>
+  <si>
+    <t>Test Recall</t>
+  </si>
+  <si>
+    <t>Test F1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +98,21 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF040C28"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,14 +132,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,15 +475,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F84472-0FCF-4FA9-820B-45CD9BCD861C}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,48 +509,168 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>83</v>
-      </c>
-      <c r="C2">
-        <v>75</v>
-      </c>
-      <c r="D2">
-        <v>75</v>
+      <c r="B2" s="2">
+        <v>0.79969999999999997</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.59670000000000001</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.56030000000000002</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.8891</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="K2" s="2">
+        <f>2*(E2*H2)/(E2+H2)</f>
+        <v>0.71412837528604123</v>
+      </c>
+      <c r="L2" s="2">
+        <f>2*(F2*I2)/(F2+I2)</f>
+        <v>0.73242506811989094</v>
+      </c>
+      <c r="M2" s="2">
+        <f>2*(G2*J2)/(G2+J2)</f>
+        <v>0.69889795150782463</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>85</v>
-      </c>
-      <c r="C3">
-        <v>71</v>
-      </c>
-      <c r="D3">
-        <v>82</v>
+      <c r="B3" s="2">
+        <v>0.72189999999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.6714</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.41720000000000002</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="K3" s="2">
+        <f>2*(E3*H3)/(E3+H3)</f>
+        <v>0.51479691516709514</v>
+      </c>
+      <c r="L3" s="2">
+        <f>2*(F3*I3)/(F3+I3)</f>
+        <v>0.69726947819871332</v>
+      </c>
+      <c r="M3" s="2">
+        <f>2*(G3*J3)/(G3+J3)</f>
+        <v>0.26184444208739921</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-      <c r="C4">
-        <v>71</v>
-      </c>
-      <c r="D4">
-        <v>70</v>
-      </c>
+      <c r="B4" s="2">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.77810000000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.7429</v>
+      </c>
+      <c r="K4" s="2">
+        <f>2*(E4*H4)/(E4+H4)</f>
+        <v>0.81952103181845837</v>
+      </c>
+      <c r="L4" s="2">
+        <f>2*(F4*I4)/(F4+I4)</f>
+        <v>0.74</v>
+      </c>
+      <c r="M4" s="2">
+        <f>2*(G4*J4)/(G4+J4)</f>
+        <v>0.77039341499773162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
